--- a/SOAC/Exercise1/Data.xlsx
+++ b/SOAC/Exercise1/Data.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,13 +393,13 @@
         <v>-0.81742999999999999</v>
       </c>
       <c r="E1">
-        <v>0.26366000000000001</v>
+        <v>0.42455999999999999</v>
       </c>
       <c r="F1">
-        <v>-7.8282999999999996</v>
+        <v>-9.0393000000000008</v>
       </c>
       <c r="G1">
-        <v>-2.0489999999999999</v>
+        <v>-7.5849000000000002</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -416,13 +416,13 @@
         <v>0.52544000000000002</v>
       </c>
       <c r="E2">
-        <v>0.12264</v>
+        <v>0.11659</v>
       </c>
       <c r="F2">
-        <v>-6.5015000000000001</v>
+        <v>-7.5072000000000001</v>
       </c>
       <c r="G2">
-        <v>-1.7018</v>
+        <v>-6.2992999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -439,13 +439,13 @@
         <v>0.23344999999999999</v>
       </c>
       <c r="E3">
-        <v>0.50893999999999995</v>
+        <v>0.65773999999999999</v>
       </c>
       <c r="F3">
-        <v>-7.1649000000000003</v>
+        <v>-8.2733000000000008</v>
       </c>
       <c r="G3">
-        <v>-1.8754</v>
+        <v>-6.9420999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -462,13 +462,13 @@
         <v>-0.87597999999999998</v>
       </c>
       <c r="E4">
-        <v>1.1589</v>
+        <v>1.6234</v>
       </c>
       <c r="F4">
-        <v>-6.5015000000000001</v>
+        <v>-7.5072000000000001</v>
       </c>
       <c r="G4">
-        <v>-1.7018</v>
+        <v>-6.2992999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -485,13 +485,13 @@
         <v>0.93415000000000004</v>
       </c>
       <c r="E5">
-        <v>-9.1894999999999998E-3</v>
+        <v>-9.5689999999999997E-2</v>
       </c>
       <c r="F5">
-        <v>-7.1649000000000003</v>
+        <v>-8.2733000000000008</v>
       </c>
       <c r="G5">
-        <v>-1.8754</v>
+        <v>-6.9420999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -508,13 +508,13 @@
         <v>1.5763</v>
       </c>
       <c r="E6">
-        <v>0.36792000000000002</v>
+        <v>0.34977000000000003</v>
       </c>
       <c r="F6">
-        <v>-3.5507</v>
+        <v>-7.1013999999999999</v>
       </c>
       <c r="G6">
-        <v>8.1999999999999993</v>
+        <v>-4.0999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -531,13 +531,13 @@
         <v>2.4523000000000001</v>
       </c>
       <c r="E7">
-        <v>-0.79098000000000002</v>
+        <v>-1.2737000000000001</v>
       </c>
       <c r="F7">
-        <v>-3.5507</v>
+        <v>-7.1013999999999999</v>
       </c>
       <c r="G7">
-        <v>8.1999999999999993</v>
+        <v>-4.0999999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -554,13 +554,13 @@
         <v>1.2261</v>
       </c>
       <c r="E8">
-        <v>-0.39549000000000001</v>
+        <v>-0.63683999999999996</v>
       </c>
       <c r="F8">
-        <v>-3.5507</v>
+        <v>-7.1013999999999999</v>
       </c>
       <c r="G8">
-        <v>8.1999999999999993</v>
+        <v>-4.0999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -577,13 +577,13 @@
         <v>1.1676</v>
       </c>
       <c r="E9">
-        <v>0.49975000000000003</v>
+        <v>0.56205000000000005</v>
       </c>
       <c r="F9">
-        <v>-5.1082999999999998</v>
+        <v>-7.5830000000000002</v>
       </c>
       <c r="G9">
-        <v>7.2355999999999998</v>
+        <v>-1.3371</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -600,13 +600,13 @@
         <v>0.64215999999999995</v>
       </c>
       <c r="E10">
-        <v>0.37711</v>
+        <v>0.44546000000000002</v>
       </c>
       <c r="F10">
-        <v>-5.4523999999999999</v>
+        <v>-6.5982000000000003</v>
       </c>
       <c r="G10">
-        <v>5.1325000000000003</v>
+        <v>1.1634</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>0.40872000000000003</v>
       </c>
       <c r="E11">
-        <v>-0.13183</v>
+        <v>-0.21228</v>
       </c>
       <c r="F11">
         <v>-6.2354000000000003</v>
@@ -646,13 +646,13 @@
         <v>0.52544000000000002</v>
       </c>
       <c r="E12">
-        <v>0.12264</v>
+        <v>0.11659</v>
       </c>
       <c r="F12">
-        <v>-2.2084000000000001</v>
+        <v>-2.5499999999999998</v>
       </c>
       <c r="G12">
-        <v>5.0999999999999996</v>
+        <v>4.4166999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -669,13 +669,13 @@
         <v>1.2843</v>
       </c>
       <c r="E13">
-        <v>0.75422</v>
+        <v>0.89092000000000005</v>
       </c>
       <c r="F13">
-        <v>-1.2143999999999999</v>
+        <v>-1.4023000000000001</v>
       </c>
       <c r="G13">
-        <v>4.0377000000000001</v>
+        <v>3.8527</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -692,13 +692,13 @@
         <v>0.11672</v>
       </c>
       <c r="E14">
-        <v>0.25446999999999997</v>
+        <v>0.32887</v>
       </c>
       <c r="F14">
-        <v>-0.69177</v>
+        <v>-0.79878000000000005</v>
       </c>
       <c r="G14">
-        <v>4.3226000000000004</v>
+        <v>4.5301</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -715,13 +715,13 @@
         <v>1.0508999999999999</v>
       </c>
       <c r="E15">
-        <v>0.24528</v>
+        <v>0.23318</v>
       </c>
       <c r="F15">
-        <v>0.76695999999999998</v>
+        <v>0.88561000000000001</v>
       </c>
       <c r="G15">
-        <v>3.9068000000000001</v>
+        <v>5.0225</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -738,13 +738,13 @@
         <v>0.11672</v>
       </c>
       <c r="E16">
-        <v>0.25446999999999997</v>
+        <v>0.32887</v>
       </c>
       <c r="F16">
-        <v>2.3883000000000001</v>
+        <v>2.7578</v>
       </c>
       <c r="G16">
-        <v>0.62512999999999996</v>
+        <v>2.3140000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -761,13 +761,13 @@
         <v>-0.70071000000000006</v>
       </c>
       <c r="E17">
-        <v>0.51812999999999998</v>
+        <v>0.75343000000000004</v>
       </c>
       <c r="F17">
-        <v>2.3250000000000002</v>
+        <v>2.6846999999999999</v>
       </c>
       <c r="G17">
-        <v>-2.6846999999999999</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -784,13 +784,13 @@
         <v>-1.2261</v>
       </c>
       <c r="E18">
-        <v>0.39549000000000001</v>
+        <v>0.63683999999999996</v>
       </c>
       <c r="F18">
-        <v>1.7257</v>
+        <v>1.9925999999999999</v>
       </c>
       <c r="G18">
-        <v>-3.0529000000000002</v>
+        <v>-2.3746999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -807,13 +807,13 @@
         <v>-0.81742999999999999</v>
       </c>
       <c r="E19">
-        <v>0.26366000000000001</v>
+        <v>0.42455999999999999</v>
       </c>
       <c r="F19">
-        <v>1.2143999999999999</v>
+        <v>1.4023000000000001</v>
       </c>
       <c r="G19">
-        <v>-4.0377000000000001</v>
+        <v>-3.8527</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -830,13 +830,13 @@
         <v>-0.29199000000000003</v>
       </c>
       <c r="E20">
-        <v>0.38629999999999998</v>
+        <v>0.54115000000000002</v>
       </c>
       <c r="F20">
-        <v>1.2143999999999999</v>
+        <v>1.4023000000000001</v>
       </c>
       <c r="G20">
-        <v>-4.0377000000000001</v>
+        <v>-3.8527</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -853,13 +853,13 @@
         <v>-0.81742999999999999</v>
       </c>
       <c r="E21">
-        <v>0.26366000000000001</v>
+        <v>0.42455999999999999</v>
       </c>
       <c r="F21">
-        <v>0.54137999999999997</v>
+        <v>0.62512999999999996</v>
       </c>
       <c r="G21">
-        <v>-3.3828999999999998</v>
+        <v>-3.5453000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -876,13 +876,13 @@
         <v>-0.11672</v>
       </c>
       <c r="E22">
-        <v>-0.25446999999999997</v>
+        <v>-0.32887</v>
       </c>
       <c r="F22">
-        <v>-1.1257999999999999</v>
+        <v>-1.3</v>
       </c>
       <c r="G22">
-        <v>-1.3</v>
+        <v>-2.2517</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-1.5588</v>
+        <v>-3.1177000000000001</v>
       </c>
       <c r="G23">
-        <v>3.6</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -922,13 +922,13 @@
         <v>-0.11672</v>
       </c>
       <c r="E24">
-        <v>-0.25446999999999997</v>
+        <v>-0.32887</v>
       </c>
       <c r="F24">
-        <v>-3.8250000000000002</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="G24">
-        <v>4.4166999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -945,22 +945,22 @@
         <v>0.17527000000000001</v>
       </c>
       <c r="E25">
-        <v>-0.64076999999999995</v>
+        <v>-0.87002000000000002</v>
       </c>
       <c r="F25">
-        <v>-4.8613999999999997</v>
+        <v>-5.3562000000000003</v>
       </c>
       <c r="G25">
-        <v>3.6638999999999999</v>
+        <v>1.9495</v>
       </c>
       <c r="H25">
         <v>-0.32107999999999998</v>
       </c>
       <c r="I25">
-        <v>-6.3448000000000002</v>
+        <v>-7.1978</v>
       </c>
       <c r="J25">
-        <v>0.80742000000000003</v>
+        <v>-2.8176999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -977,22 +977,22 @@
         <v>0.17527000000000001</v>
       </c>
       <c r="E26">
-        <v>-0.64076999999999995</v>
+        <v>-0.87002000000000002</v>
       </c>
       <c r="F26">
-        <v>-4.6386000000000003</v>
+        <v>-5.6134000000000004</v>
       </c>
       <c r="G26">
-        <v>4.3665000000000003</v>
+        <v>0.98978999999999995</v>
       </c>
       <c r="H26">
         <v>0.35034999999999999</v>
       </c>
       <c r="I26">
-        <v>-5.5701000000000001</v>
+        <v>-6.5602999999999998</v>
       </c>
       <c r="J26">
-        <v>1.3324</v>
+        <v>-2.6547999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1009,22 +1009,22 @@
         <v>0.29199000000000003</v>
       </c>
       <c r="E27">
-        <v>-0.38629999999999998</v>
+        <v>-0.54115000000000002</v>
       </c>
       <c r="F27">
-        <v>-4.3495999999999997</v>
+        <v>-4.7923999999999998</v>
       </c>
       <c r="G27">
-        <v>3.2782</v>
+        <v>1.7443</v>
       </c>
       <c r="H27">
         <v>0.26272000000000001</v>
       </c>
       <c r="I27">
-        <v>-5.7572999999999999</v>
+        <v>-6.5328999999999997</v>
       </c>
       <c r="J27">
-        <v>0.70140999999999998</v>
+        <v>-2.5989</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1041,22 +1041,22 @@
         <v>2.2770000000000001</v>
       </c>
       <c r="E28">
-        <v>-0.15021000000000001</v>
+        <v>-0.40365000000000001</v>
       </c>
       <c r="F28">
-        <v>-4.8613999999999997</v>
+        <v>-5.3562000000000003</v>
       </c>
       <c r="G28">
-        <v>3.6638999999999999</v>
+        <v>1.9495</v>
       </c>
       <c r="H28">
         <v>0.70052000000000003</v>
       </c>
       <c r="I28">
-        <v>-5.6814</v>
+        <v>-6.4317000000000002</v>
       </c>
       <c r="J28">
-        <v>0.98107</v>
+        <v>-2.1749000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1073,22 +1073,22 @@
         <v>1.8683000000000001</v>
       </c>
       <c r="E29">
-        <v>-1.8379E-2</v>
+        <v>-0.19137999999999999</v>
       </c>
       <c r="F29">
-        <v>-5.2877999999999998</v>
+        <v>-5.8261000000000003</v>
       </c>
       <c r="G29">
-        <v>3.9853000000000001</v>
+        <v>2.1204999999999998</v>
       </c>
       <c r="H29">
         <v>1.4012</v>
       </c>
       <c r="I29">
-        <v>-6.2263000000000002</v>
+        <v>-7.0496999999999996</v>
       </c>
       <c r="J29">
-        <v>1.0548999999999999</v>
+        <v>-2.4108000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1105,22 +1105,22 @@
         <v>-0.11672</v>
       </c>
       <c r="E30">
-        <v>-0.25446999999999997</v>
+        <v>-0.32887</v>
       </c>
       <c r="F30">
-        <v>-5.2877999999999998</v>
+        <v>-4.7495000000000003</v>
       </c>
       <c r="G30">
-        <v>2.1204999999999998</v>
+        <v>3.9853000000000001</v>
       </c>
       <c r="H30">
         <v>0.7298</v>
       </c>
       <c r="I30">
-        <v>-4.4192</v>
+        <v>-5.9253999999999998</v>
       </c>
       <c r="J30">
-        <v>5.1603000000000003</v>
+        <v>-5.7357999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1137,22 +1137,22 @@
         <v>-0.81742999999999999</v>
       </c>
       <c r="E31">
-        <v>0.26366000000000001</v>
+        <v>0.42455999999999999</v>
       </c>
       <c r="F31">
-        <v>-3.3365999999999998</v>
+        <v>-2.6354000000000002</v>
       </c>
       <c r="G31">
-        <v>0.71196000000000004</v>
+        <v>3.1408</v>
       </c>
       <c r="H31">
         <v>0.81742999999999999</v>
       </c>
       <c r="I31">
-        <v>-3.4436</v>
+        <v>-4.8684000000000003</v>
       </c>
       <c r="J31">
-        <v>4.4560000000000004</v>
+        <v>-0.47960999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1169,22 +1169,22 @@
         <v>-0.52544000000000002</v>
       </c>
       <c r="E32">
-        <v>-0.12264</v>
+        <v>-0.11659</v>
       </c>
       <c r="F32">
-        <v>-1.2143999999999999</v>
+        <v>-1.4023000000000001</v>
       </c>
       <c r="G32">
-        <v>4.0377000000000001</v>
+        <v>3.8527</v>
       </c>
       <c r="H32">
         <v>0.35034999999999999</v>
       </c>
       <c r="I32">
-        <v>-2.3826000000000001</v>
+        <v>-4.2518000000000002</v>
       </c>
       <c r="J32">
-        <v>6.1189</v>
+        <v>-0.12363</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1201,22 +1201,22 @@
         <v>0.75888</v>
       </c>
       <c r="E33">
-        <v>0.63158000000000003</v>
+        <v>0.77432999999999996</v>
       </c>
       <c r="F33">
-        <v>1.5588</v>
+        <v>1.8</v>
       </c>
       <c r="G33">
-        <v>1.8</v>
+        <v>3.1177000000000001</v>
       </c>
       <c r="H33">
         <v>0.96323999999999999</v>
       </c>
       <c r="I33">
-        <v>-1.7746999999999999</v>
+        <v>-2.8915000000000002</v>
       </c>
       <c r="J33">
-        <v>4.5178000000000003</v>
+        <v>0.89029999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1233,22 +1233,22 @@
         <v>-0.70071000000000006</v>
       </c>
       <c r="E34">
-        <v>0.51812999999999998</v>
+        <v>0.75343000000000004</v>
       </c>
       <c r="F34">
-        <v>0.62202000000000002</v>
+        <v>0.71823999999999999</v>
       </c>
       <c r="G34">
-        <v>1.3499000000000001</v>
+        <v>1.9734</v>
       </c>
       <c r="H34">
         <v>-2.9273E-2</v>
       </c>
       <c r="I34">
-        <v>-2.4152</v>
+        <v>-2.94</v>
       </c>
       <c r="J34">
-        <v>3.2412000000000001</v>
+        <v>1.5684</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1265,22 +1265,22 @@
         <v>-0.87597999999999998</v>
       </c>
       <c r="E35">
-        <v>1.1589</v>
+        <v>1.6234</v>
       </c>
       <c r="F35">
-        <v>1.3423</v>
+        <v>1.55</v>
       </c>
       <c r="G35">
-        <v>1.55</v>
+        <v>2.6846999999999999</v>
       </c>
       <c r="H35">
         <v>-0.23363</v>
       </c>
       <c r="I35">
-        <v>-2.4464999999999999</v>
+        <v>-2.3426999999999998</v>
       </c>
       <c r="J35">
-        <v>2.5750000000000002</v>
+        <v>3.1423000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1297,22 +1297,22 @@
         <v>-0.99270000000000003</v>
       </c>
       <c r="E36">
-        <v>0.90442999999999996</v>
+        <v>1.2946</v>
       </c>
       <c r="F36">
-        <v>1.7249000000000001</v>
+        <v>1.9917</v>
       </c>
       <c r="G36">
-        <v>0.45149</v>
+        <v>1.6712</v>
       </c>
       <c r="H36">
         <v>-0.23363</v>
       </c>
       <c r="I36">
-        <v>-0.24174000000000001</v>
+        <v>-0.27914</v>
       </c>
       <c r="J36">
-        <v>2.7757000000000001</v>
+        <v>3.044</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1329,22 +1329,22 @@
         <v>-1.8101</v>
       </c>
       <c r="E37">
-        <v>1.1680999999999999</v>
+        <v>1.7191000000000001</v>
       </c>
       <c r="F37">
-        <v>3.4967999999999999</v>
+        <v>4.0377000000000001</v>
       </c>
       <c r="G37">
-        <v>-1.4023000000000001</v>
+        <v>0.71196000000000004</v>
       </c>
       <c r="H37">
         <v>-0.26290000000000002</v>
       </c>
       <c r="I37">
-        <v>1.1412</v>
+        <v>1.3177000000000001</v>
       </c>
       <c r="J37">
-        <v>1.3177000000000001</v>
+        <v>2.2823000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1361,22 +1361,22 @@
         <v>-2.8610000000000002</v>
       </c>
       <c r="E38">
-        <v>0.92281000000000002</v>
+        <v>1.486</v>
       </c>
       <c r="F38">
-        <v>5.4523999999999999</v>
+        <v>6.2958999999999996</v>
       </c>
       <c r="G38">
-        <v>-5.1325000000000003</v>
+        <v>-2.2915000000000001</v>
       </c>
       <c r="H38">
         <v>-1.3721000000000001</v>
       </c>
       <c r="I38">
-        <v>2.3803000000000001</v>
+        <v>2.7486000000000002</v>
       </c>
       <c r="J38">
-        <v>-0.40495999999999999</v>
+        <v>1.1193</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1393,22 +1393,22 @@
         <v>-1.8683000000000001</v>
       </c>
       <c r="E39">
-        <v>1.8379E-2</v>
+        <v>0.19137999999999999</v>
       </c>
       <c r="F39">
-        <v>1.5588</v>
+        <v>1.8</v>
       </c>
       <c r="G39">
-        <v>-3.6</v>
+        <v>-3.1177000000000001</v>
       </c>
       <c r="H39">
         <v>-0.40872000000000003</v>
       </c>
       <c r="I39">
-        <v>1.1629</v>
+        <v>1.3428</v>
       </c>
       <c r="J39">
-        <v>0.15340999999999999</v>
+        <v>0.95240999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1425,22 +1425,22 @@
         <v>-2.1017999999999999</v>
       </c>
       <c r="E40">
-        <v>-0.49056</v>
+        <v>-0.46636</v>
       </c>
       <c r="F40">
-        <v>2.4681999999999999</v>
+        <v>2.85</v>
       </c>
       <c r="G40">
-        <v>-5.7</v>
+        <v>-4.9363000000000001</v>
       </c>
       <c r="H40">
         <v>-0.99251999999999996</v>
       </c>
       <c r="I40">
-        <v>2.4281999999999999</v>
+        <v>2.8039000000000001</v>
       </c>
       <c r="J40">
-        <v>-2.5373999999999999</v>
+        <v>-1.3111999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1457,22 +1457,22 @@
         <v>-0.52544000000000002</v>
       </c>
       <c r="E41">
-        <v>-0.12264</v>
+        <v>-0.11659</v>
       </c>
       <c r="F41">
-        <v>1.8364</v>
+        <v>2.1204999999999998</v>
       </c>
       <c r="G41">
-        <v>-6.1058000000000003</v>
+        <v>-5.8261000000000003</v>
       </c>
       <c r="H41">
         <v>-0.61307</v>
       </c>
       <c r="I41">
-        <v>2.0807000000000002</v>
+        <v>2.4026000000000001</v>
       </c>
       <c r="J41">
-        <v>-4.3952</v>
+        <v>-3.6880000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1489,22 +1489,22 @@
         <v>-0.35016999999999998</v>
       </c>
       <c r="E42">
-        <v>-0.76341000000000003</v>
+        <v>-0.98660999999999999</v>
       </c>
       <c r="F42">
-        <v>2.1326000000000001</v>
+        <v>2.4624999999999999</v>
       </c>
       <c r="G42">
-        <v>-7.0906000000000002</v>
+        <v>-6.7657999999999996</v>
       </c>
       <c r="H42">
         <v>-0.78815999999999997</v>
       </c>
       <c r="I42">
-        <v>1.9292</v>
+        <v>2.2275999999999998</v>
       </c>
       <c r="J42">
-        <v>-5.0717999999999996</v>
+        <v>-4.5702999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1521,22 +1521,22 @@
         <v>-1.1091</v>
       </c>
       <c r="E43">
-        <v>-1.395</v>
+        <v>-1.7608999999999999</v>
       </c>
       <c r="F43">
-        <v>1.8364</v>
+        <v>2.1204999999999998</v>
       </c>
       <c r="G43">
-        <v>-6.1058000000000003</v>
+        <v>-5.8261000000000003</v>
       </c>
       <c r="H43">
         <v>-0.96323999999999999</v>
       </c>
       <c r="I43">
-        <v>1.5254000000000001</v>
+        <v>1.7614000000000001</v>
       </c>
       <c r="J43">
-        <v>-5.0717999999999996</v>
+        <v>-4.8394000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1553,22 +1553,22 @@
         <v>-0.11672</v>
       </c>
       <c r="E44">
-        <v>-0.25446999999999997</v>
+        <v>-0.32887</v>
       </c>
       <c r="F44">
-        <v>2.2084000000000001</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="G44">
-        <v>-5.0999999999999996</v>
+        <v>-4.4166999999999996</v>
       </c>
       <c r="H44">
         <v>-0.20436000000000001</v>
       </c>
       <c r="I44">
-        <v>1.7114</v>
+        <v>1.9761</v>
       </c>
       <c r="J44">
-        <v>-4.5689000000000002</v>
+        <v>-4.1346999999999996</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1585,22 +1585,22 @@
         <v>-0.11672</v>
       </c>
       <c r="E45">
-        <v>-0.25446999999999997</v>
+        <v>-0.32887</v>
       </c>
       <c r="F45">
-        <v>0.76695999999999998</v>
+        <v>0.88561000000000001</v>
       </c>
       <c r="G45">
-        <v>-4.7923999999999998</v>
+        <v>-5.0225</v>
       </c>
       <c r="H45">
         <v>-0.46708</v>
       </c>
       <c r="I45">
-        <v>0.65417000000000003</v>
+        <v>0.75536999999999999</v>
       </c>
       <c r="J45">
-        <v>-4.0876999999999999</v>
+        <v>-4.2839</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1617,22 +1617,22 @@
         <v>-1.3429</v>
       </c>
       <c r="E46">
-        <v>0.14102000000000001</v>
+        <v>0.30797000000000002</v>
       </c>
       <c r="F46">
-        <v>-0.69177</v>
+        <v>-0.79878000000000005</v>
       </c>
       <c r="G46">
-        <v>-3.5238</v>
+        <v>-4.5301</v>
       </c>
       <c r="H46">
         <v>-0.7298</v>
       </c>
       <c r="I46">
-        <v>-0.90880000000000005</v>
+        <v>-1.0494000000000001</v>
       </c>
       <c r="J46">
-        <v>-2.4119000000000002</v>
+        <v>-3.3908999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1649,22 +1649,22 @@
         <v>-0.11672</v>
       </c>
       <c r="E47">
-        <v>-0.25446999999999997</v>
+        <v>-0.32887</v>
       </c>
       <c r="F47" s="1">
-        <v>-5.7688999999999999E-16</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>-3.5507</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="H47">
         <v>-5.8361000000000003E-2</v>
       </c>
       <c r="I47">
-        <v>-0.77942</v>
+        <v>-1.5588</v>
       </c>
       <c r="J47">
-        <v>2.4648E-2</v>
+        <v>-2.95</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -1681,22 +1681,22 @@
         <v>-4.2621000000000002</v>
       </c>
       <c r="E48">
-        <v>-8.5883000000000001E-2</v>
+        <v>0.26616000000000001</v>
       </c>
       <c r="F48">
-        <v>1.1257999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="G48">
-        <v>1.3</v>
+        <v>2.2517</v>
       </c>
       <c r="H48">
         <v>-2.1894</v>
       </c>
       <c r="I48">
-        <v>-1.3495999999999999</v>
+        <v>-1.9</v>
       </c>
       <c r="J48">
-        <v>2.8584000000000001</v>
+        <v>1.1257999999999999</v>
       </c>
     </row>
   </sheetData>
